--- a/DATA_goal/Junction_Flooding_190.xlsx
+++ b/DATA_goal/Junction_Flooding_190.xlsx
@@ -451,9 +451,9 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -468,8 +468,8 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41622.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.35</v>
+        <v>4.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.99</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.97</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.07</v>
+        <v>2.01</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.29</v>
+        <v>2.53</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>266.2</v>
+        <v>26.62</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.05</v>
+        <v>5</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.24</v>
+        <v>3.32</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.32</v>
+        <v>1.73</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.81</v>
+        <v>2.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.38</v>
+        <v>1.54</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.81</v>
+        <v>1.98</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.98</v>
+        <v>5.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41622.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.83</v>
+        <v>2.88</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.87</v>
+        <v>2.39</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.39</v>
+        <v>4.34</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.4</v>
+        <v>1.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>154.06</v>
+        <v>15.41</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.74</v>
+        <v>2.97</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.58</v>
+        <v>2.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>39.24</v>
+        <v>3.92</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41622.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>19.49</v>
+        <v>1.95</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>52.22</v>
+        <v>5.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41622.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.15</v>
+        <v>0.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>35.02</v>
+        <v>3.5</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41622.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>10.67</v>
+        <v>1.07</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>22.95</v>
+        <v>2.3</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>29.74</v>
+        <v>2.97</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>119.68</v>
+        <v>11.97</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>15.49</v>
+        <v>1.55</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>8.35</v>
+        <v>0.83</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>26.55</v>
+        <v>2.65</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41622.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>24.31</v>
+        <v>2.43</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>83.09</v>
+        <v>8.31</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>22.08</v>
+        <v>2.21</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41622.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.64</v>
+        <v>4.66</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.57</v>
+        <v>3.86</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>62.48</v>
+        <v>6.25</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.06</v>
+        <v>2.61</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.36</v>
+        <v>1.74</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.81</v>
+        <v>1.88</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.75</v>
+        <v>1.97</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>249.05</v>
+        <v>24.9</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.03</v>
+        <v>4.7</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.71</v>
+        <v>3.17</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.89</v>
+        <v>3.09</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>56.55</v>
+        <v>5.65</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41622.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="L9" s="4" t="n">
         <v>0.43</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>4.3</v>
-      </c>
       <c r="M9" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>51.1</v>
+        <v>5.11</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="Y9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH9" s="4" t="n">
         <v>0.44</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>4.43</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41622.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>17.03</v>
+        <v>1.7</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>49.61</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>41.02</v>
+        <v>4.1</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>66.08</v>
+        <v>6.61</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>18.47</v>
+        <v>1.85</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>265.07</v>
+        <v>26.51</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>49.95</v>
+        <v>4.99</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>33.72</v>
+        <v>3.37</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>32.67</v>
+        <v>3.27</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>20.96</v>
+        <v>2.1</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>59.73</v>
+        <v>5.97</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_190.xlsx
+++ b/DATA_goal/Junction_Flooding_190.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -453,7 +453,7 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41622.34027777778</v>
+        <v>44871.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.54</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6</v>
+        <v>5.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.01</v>
+        <v>1.89</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.53</v>
+        <v>2.37</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>26.62</v>
+        <v>25.02</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5</v>
+        <v>4.71</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.11</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.3</v>
+        <v>4.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41622.34722222222</v>
+        <v>44871.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.72</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.88</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.39</v>
+        <v>1.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.34</v>
+        <v>2.59</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.64</v>
+        <v>0.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.36</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.55</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.61</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.63</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.79</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.41</v>
+        <v>7.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.97</v>
+        <v>1.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.46</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.44</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.62</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.92</v>
+        <v>2.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41622.35416666666</v>
+        <v>44871.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.05</v>
+        <v>2.15</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <v>0.87</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="4" t="n">
+      <c r="M4" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.55</v>
+        <v>1.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.22</v>
+        <v>11.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.11</v>
+        <v>2.2</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.73</v>
+        <v>1.46</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.79</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.59</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.91</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.77</v>
+        <v>2.74</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41622.36111111111</v>
+        <v>44871.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.36</v>
+        <v>1.63</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.23</v>
+        <v>1.19</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="T5" s="4" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.58</v>
+        <v>2.35</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.23</v>
+        <v>1.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.25</v>
+        <v>1.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.31</v>
+        <v>1.49</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.16</v>
+        <v>4.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.32</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41622.36805555555</v>
+        <v>44871.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.07</v>
+        <v>22.1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.77</v>
+        <v>16.33</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.08</v>
+        <v>1.18</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.3</v>
+        <v>47.82</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.9</v>
+        <v>39.53</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.84</v>
+        <v>17.39</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.97</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.29</v>
+        <v>26.76</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.57</v>
+        <v>11.9</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.85</v>
+        <v>17.76</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.93</v>
+        <v>19.29</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.97</v>
+        <v>20.28</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.27</v>
+        <v>5.56</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.83</v>
+        <v>17.29</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.18</v>
+        <v>24.63</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.71</v>
+        <v>14.53</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.73</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.82</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>11.97</v>
+        <v>255.92</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.32</v>
+        <v>48.35</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.77</v>
+        <v>15.96</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.55</v>
+        <v>32.54</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.83</v>
+        <v>17.25</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.1</v>
+        <v>2.36</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.46</v>
+        <v>32.48</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.68</v>
+        <v>14.1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.61</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.71</v>
+        <v>14.68</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.97</v>
+        <v>20.21</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.65</v>
+        <v>60.46</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.43</v>
+        <v>9</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41622.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41622.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41622.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41622.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>26.51</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41622.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>28.07</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>49.85</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>179.24</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>34.34</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>45.31</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.14</v>
+        <v>19.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_190.xlsx
+++ b/DATA_goal/Junction_Flooding_190.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -468,8 +468,8 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>44871.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.16</v>
+        <v>21.62</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.46</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.54</v>
+        <v>45.36</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.75</v>
+        <v>37.51</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.01</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.57</v>
+        <v>55.7</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.62</v>
+        <v>26.18</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.7</v>
+        <v>17.02</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.05</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.37</v>
+        <v>23.75</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.02</v>
+        <v>250.17</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.71</v>
+        <v>47.09</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.11</v>
+        <v>31.15</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.25</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.41</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.66</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.92</v>
+        <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44871.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.59</v>
+        <v>25.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.25</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.85</v>
+        <v>78.55</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.37</v>
+        <v>23.73</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44871.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.05</v>
+        <v>30.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.28</v>
+        <v>112.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.2</v>
+        <v>22.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.57</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44871.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.52</v>
+        <v>35.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.91</v>
+        <v>29.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.83</v>
+        <v>48.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.72</v>
+        <v>187.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.57</v>
+        <v>35.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.39</v>
+        <v>23.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.36</v>
+        <v>43.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_190.xlsx
+++ b/DATA_goal/Junction_Flooding_190.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,91 +655,91 @@
         <v>44871.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.62</v>
+        <v>21.619</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.46</v>
+        <v>14.458</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.46</v>
+        <v>4.456</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>45.36</v>
+        <v>45.361</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>37.51</v>
+        <v>37.513</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.01</v>
+        <v>17.013</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>55.7</v>
+        <v>55.703</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.18</v>
+        <v>26.178</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.07</v>
+        <v>11.065</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.02</v>
+        <v>17.024</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.05</v>
+        <v>18.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.88</v>
+        <v>18.877</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.43</v>
+        <v>5.432</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.92</v>
+        <v>16.918</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.75</v>
+        <v>23.745</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.24</v>
+        <v>14.242</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.457</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>250.17</v>
+        <v>250.169</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.09</v>
+        <v>47.091</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.616</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.15</v>
+        <v>31.148</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.25</v>
+        <v>16.247</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.41</v>
+        <v>2.407</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.66</v>
+        <v>27.662</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.75</v>
+        <v>12.753</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>14.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.41</v>
+        <v>18.409</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>49.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.52</v>
+        <v>19.523</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44871.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>4.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.544</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.01</v>
+        <v>15.012</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.42</v>
+        <v>12.419</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.67</v>
+        <v>5.672</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.93</v>
+        <v>25.933</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.48</v>
+        <v>5.485</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.1</v>
+        <v>6.098</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.25</v>
+        <v>6.251</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.817</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.87</v>
+        <v>7.869</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.02</v>
+        <v>5.022</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.55</v>
+        <v>78.54600000000001</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.99</v>
+        <v>15.987</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.37</v>
+        <v>10.369</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.59</v>
+        <v>5.589</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.887</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.92</v>
+        <v>11.921</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.39</v>
+        <v>4.385</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.01</v>
+        <v>5.013</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>6.22</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>23.73</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.779</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="4">
@@ -863,19 +863,19 @@
         <v>44871.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>7.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.125</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.52</v>
+        <v>21.517</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.79</v>
+        <v>17.791</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>7.94</v>
@@ -884,82 +884,82 @@
         <v>30.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.91</v>
+        <v>7.913</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.74</v>
+        <v>8.739000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.535</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.1</v>
+        <v>11.102</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.83</v>
+        <v>6.834</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.025</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.629</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.83</v>
+        <v>112.833</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.04</v>
+        <v>22.044</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.57</v>
+        <v>14.574</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.87</v>
+        <v>7.873</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.16</v>
+        <v>1.155</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.48</v>
+        <v>14.477</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.88</v>
+        <v>5.876</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>6.84</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.071999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.4</v>
+        <v>27.396</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.01</v>
+        <v>4.009</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44871.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.92</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.35</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_190.xlsx
+++ b/DATA_goal/Junction_Flooding_190.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44871.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>11.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.111</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.21</v>
+        <v>35.212</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.11</v>
+        <v>29.111</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.85</v>
+        <v>12.855</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.26</v>
+        <v>48.258</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>8.722</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>13.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.24</v>
+        <v>14.236</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.91</v>
+        <v>14.913</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.11</v>
+        <v>4.105</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.14</v>
+        <v>18.139</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.83</v>
+        <v>10.833</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.24</v>
+        <v>187.237</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.71</v>
+        <v>35.706</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.91</v>
+        <v>23.915</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.75</v>
+        <v>12.752</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.52</v>
+        <v>23.523</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.91</v>
+        <v>10.911</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.88</v>
+        <v>14.881</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.65</v>
+        <v>43.646</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.61</v>
+        <v>6.609</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44871.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>47.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>39.53</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>255.92</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>48.35</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_190.xlsx
+++ b/DATA_goal/Junction_Flooding_190.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="8" customWidth="1" min="27" max="27"/>
     <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44871.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.334</v>
+        <v>16.33</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>11.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.111</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.212</v>
+        <v>35.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.111</v>
+        <v>29.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.855</v>
+        <v>12.85</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.258</v>
+        <v>48.26</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.779</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.722</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>13.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.236</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.913</v>
+        <v>14.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.105</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.783</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.139</v>
+        <v>18.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.833</v>
+        <v>10.83</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.829</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.237</v>
+        <v>187.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.706</v>
+        <v>35.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.799</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.915</v>
+        <v>23.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.752</v>
+        <v>12.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.778</v>
+        <v>1.78</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.523</v>
+        <v>23.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.422</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.311999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.911</v>
+        <v>10.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.881</v>
+        <v>14.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.646</v>
+        <v>43.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.609</v>
+        <v>6.61</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.751</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44871.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.53</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.63</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>255.92</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>48.35</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.25</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.48</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.96</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
